--- a/Project-KTXForecasting/Result/20250110_KCI/Forecasting_전라선_FUTR8+LAG0.xlsx
+++ b/Project-KTXForecasting/Result/20250110_KCI/Forecasting_전라선_FUTR8+LAG0.xlsx
@@ -38,37 +38,37 @@
     <t>MedAPE</t>
   </si>
   <si>
-    <t>LSTM</t>
+    <t>RNN</t>
   </si>
   <si>
     <t>GRU</t>
   </si>
   <si>
+    <t>TCN</t>
+  </si>
+  <si>
+    <t>LSTM</t>
+  </si>
+  <si>
     <t>DilatedRNN</t>
   </si>
   <si>
-    <t>TCN</t>
+    <t>LightGBM</t>
   </si>
   <si>
-    <t>RNN</t>
+    <t>XGBoost</t>
   </si>
   <si>
     <t>RandomForest</t>
   </si>
   <si>
-    <t>XGBoost</t>
-  </si>
-  <si>
-    <t>LightGBM</t>
+    <t>CatBoost</t>
   </si>
   <si>
     <t>NBEATSx</t>
   </si>
   <si>
     <t>TiDE</t>
-  </si>
-  <si>
-    <t>CatBoost</t>
   </si>
   <si>
     <t>NHITS</t>
@@ -481,25 +481,25 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>505907140.2714844</v>
+        <v>690561744.2929688</v>
       </c>
       <c r="C2">
-        <v>22492.37960446792</v>
+        <v>26278.54151761411</v>
       </c>
       <c r="D2">
-        <v>0.000859217344893913</v>
+        <v>0.001017384860159905</v>
       </c>
       <c r="E2">
-        <v>17105.95833333333</v>
+        <v>18453.59375</v>
       </c>
       <c r="F2">
-        <v>0.02236619061394614</v>
+        <v>0.02347710177043575</v>
       </c>
       <c r="G2">
-        <v>13131.09375</v>
+        <v>12487.71875</v>
       </c>
       <c r="H2">
-        <v>0.01729265924380174</v>
+        <v>0.01820345211307548</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -507,25 +507,25 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>541963853.6793619</v>
+        <v>537390561.8349609</v>
       </c>
       <c r="C3">
-        <v>23280.11713199403</v>
+        <v>23181.68591442307</v>
       </c>
       <c r="D3">
-        <v>0.0009607935438937396</v>
+        <v>0.0009327261484949577</v>
       </c>
       <c r="E3">
-        <v>19282.88020833333</v>
+        <v>18445.81770833333</v>
       </c>
       <c r="F3">
-        <v>0.0256620165762972</v>
+        <v>0.02427783523521257</v>
       </c>
       <c r="G3">
-        <v>18373.40625</v>
+        <v>16038.125</v>
       </c>
       <c r="H3">
-        <v>0.02454268077283383</v>
+        <v>0.02024335654591688</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -533,25 +533,25 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>752353831.2685547</v>
+        <v>436400503.9713542</v>
       </c>
       <c r="C4">
-        <v>27429.06909227061</v>
+        <v>20890.20114722101</v>
       </c>
       <c r="D4">
-        <v>0.001320603797629362</v>
+        <v>0.0007489072033594549</v>
       </c>
       <c r="E4">
-        <v>21445.16145833333</v>
+        <v>17794.4375</v>
       </c>
       <c r="F4">
-        <v>0.02845854147660276</v>
+        <v>0.0232195799722006</v>
       </c>
       <c r="G4">
-        <v>19584.9375</v>
+        <v>23877.4375</v>
       </c>
       <c r="H4">
-        <v>0.02580305172161621</v>
+        <v>0.03015113878242003</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -559,25 +559,25 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>909483370.4667969</v>
+        <v>656299248.2259115</v>
       </c>
       <c r="C5">
-        <v>30157.64199115702</v>
+        <v>25618.33812381107</v>
       </c>
       <c r="D5">
-        <v>0.001624190211983442</v>
+        <v>0.001170122326183482</v>
       </c>
       <c r="E5">
-        <v>25081.9375</v>
+        <v>21576.59375</v>
       </c>
       <c r="F5">
-        <v>0.03361693188554907</v>
+        <v>0.02847681051258817</v>
       </c>
       <c r="G5">
-        <v>22087.75</v>
+        <v>28680.25</v>
       </c>
       <c r="H5">
-        <v>0.03138039478638698</v>
+        <v>0.03647470073406479</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -585,25 +585,25 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>1289630353.465495</v>
+        <v>872613690.6116537</v>
       </c>
       <c r="C6">
-        <v>35911.42371816377</v>
+        <v>29540.03538609346</v>
       </c>
       <c r="D6">
-        <v>0.002244174960687512</v>
+        <v>0.001516087415604325</v>
       </c>
       <c r="E6">
-        <v>32897.85416666666</v>
+        <v>25568.33854166667</v>
       </c>
       <c r="F6">
-        <v>0.04354230073781248</v>
+        <v>0.0336320392748916</v>
       </c>
       <c r="G6">
-        <v>30656.34375</v>
+        <v>28181.0625</v>
       </c>
       <c r="H6">
-        <v>0.03981180484376964</v>
+        <v>0.0364534031229618</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -611,25 +611,25 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>3915119597.450975</v>
+        <v>7823294319.485484</v>
       </c>
       <c r="C7">
-        <v>62570.91654635542</v>
+        <v>88449.38846303847</v>
       </c>
       <c r="D7">
-        <v>0.006352672297500525</v>
+        <v>0.01200362374563536</v>
       </c>
       <c r="E7">
-        <v>56566.40416666667</v>
+        <v>78473.96681834117</v>
       </c>
       <c r="F7">
-        <v>0.0733648925940646</v>
+        <v>0.09879612196719507</v>
       </c>
       <c r="G7">
-        <v>53179.60999999999</v>
+        <v>70860.60503198486</v>
       </c>
       <c r="H7">
-        <v>0.07026204555569923</v>
+        <v>0.09329506438648534</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -637,25 +637,25 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>4369353746.856445</v>
+        <v>6133168093.039062</v>
       </c>
       <c r="C8">
-        <v>66101.08733490278</v>
+        <v>78314.54585860192</v>
       </c>
       <c r="D8">
-        <v>0.007179085606817954</v>
+        <v>0.009631667906612332</v>
       </c>
       <c r="E8">
-        <v>60515.36979166666</v>
+        <v>71474.44791666667</v>
       </c>
       <c r="F8">
-        <v>0.07870405049243552</v>
+        <v>0.09068054027643953</v>
       </c>
       <c r="G8">
-        <v>62807.53125</v>
+        <v>81114.4375</v>
       </c>
       <c r="H8">
-        <v>0.08302321121583218</v>
+        <v>0.1026887589050759</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -663,25 +663,25 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>6326586066.975356</v>
+        <v>6155183283.561017</v>
       </c>
       <c r="C9">
-        <v>79539.83949553428</v>
+        <v>78454.97615550601</v>
       </c>
       <c r="D9">
-        <v>0.01018228048000629</v>
+        <v>0.009694747818273361</v>
       </c>
       <c r="E9">
-        <v>70651.96427913038</v>
+        <v>72188.89166666668</v>
       </c>
       <c r="F9">
-        <v>0.09145464356381251</v>
+        <v>0.09162267954958947</v>
       </c>
       <c r="G9">
-        <v>72873.6419181418</v>
+        <v>85355.48999999999</v>
       </c>
       <c r="H9">
-        <v>0.09630262387100796</v>
+        <v>0.1104142840608578</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -689,25 +689,25 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>11833115620.99121</v>
+        <v>7797449450.911847</v>
       </c>
       <c r="C10">
-        <v>108780.1251193949</v>
+        <v>88303.16784188349</v>
       </c>
       <c r="D10">
-        <v>0.01936434802013797</v>
+        <v>0.01249341276454511</v>
       </c>
       <c r="E10">
-        <v>77992.31770833333</v>
+        <v>80583.63496764543</v>
       </c>
       <c r="F10">
-        <v>0.1018875277922696</v>
+        <v>0.1025807415953915</v>
       </c>
       <c r="G10">
-        <v>71925.125</v>
+        <v>91586.08876845997</v>
       </c>
       <c r="H10">
-        <v>0.09094833139449462</v>
+        <v>0.1127226769377014</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -715,25 +715,25 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>8921070592.746094</v>
+        <v>13445984550.07227</v>
       </c>
       <c r="C11">
-        <v>94451.41922039125</v>
+        <v>115956.8219212318</v>
       </c>
       <c r="D11">
-        <v>0.01694897565891005</v>
+        <v>0.02311127653675631</v>
       </c>
       <c r="E11">
-        <v>77614.53125</v>
+        <v>101531.84375</v>
       </c>
       <c r="F11">
-        <v>0.1048914717927579</v>
+        <v>0.1322366923525064</v>
       </c>
       <c r="G11">
-        <v>69395</v>
+        <v>99668.9375</v>
       </c>
       <c r="H11">
-        <v>0.09171413625996563</v>
+        <v>0.1263617903923211</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -741,25 +741,25 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>6810046502.050652</v>
+        <v>22254965120.84318</v>
       </c>
       <c r="C12">
-        <v>82523.00589563283</v>
+        <v>149180.9810962617</v>
       </c>
       <c r="D12">
-        <v>0.01134216275419449</v>
+        <v>0.0366052807264357</v>
       </c>
       <c r="E12">
-        <v>71866.54160895753</v>
+        <v>137328.4609375</v>
       </c>
       <c r="F12">
-        <v>0.09314936960483118</v>
+        <v>0.1770579952705532</v>
       </c>
       <c r="G12">
-        <v>83744.93881908199</v>
+        <v>129239.21875</v>
       </c>
       <c r="H12">
-        <v>0.1081522370666483</v>
+        <v>0.1695022066232237</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -767,25 +767,25 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>13820056590.63314</v>
+        <v>23879156016.28809</v>
       </c>
       <c r="C13">
-        <v>117558.7367686177</v>
+        <v>154528.8193713007</v>
       </c>
       <c r="D13">
-        <v>0.02276635089687543</v>
+        <v>0.03893958479206511</v>
       </c>
       <c r="E13">
-        <v>91407.34895833333</v>
+        <v>144265.3072916667</v>
       </c>
       <c r="F13">
-        <v>0.119758393097324</v>
+        <v>0.1850830891078981</v>
       </c>
       <c r="G13">
-        <v>86362.4375</v>
+        <v>143426.84375</v>
       </c>
       <c r="H13">
-        <v>0.1167890723007578</v>
+        <v>0.1830704628729538</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -793,25 +793,25 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>85511661557.16724</v>
+        <v>97251331225.20972</v>
       </c>
       <c r="C14">
-        <v>292423.7705063787</v>
+        <v>311851.456987473</v>
       </c>
       <c r="D14">
-        <v>0.1460252131325911</v>
+        <v>0.1642247556766506</v>
       </c>
       <c r="E14">
-        <v>278865.2109375</v>
+        <v>310913.0651041667</v>
       </c>
       <c r="F14">
-        <v>0.3674596827675814</v>
+        <v>0.4040954707921809</v>
       </c>
       <c r="G14">
-        <v>261506.984375</v>
+        <v>308794.484375</v>
       </c>
       <c r="H14">
-        <v>0.3393509303076952</v>
+        <v>0.3992616149462391</v>
       </c>
     </row>
   </sheetData>
@@ -821,7 +821,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P34"/>
+  <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -879,757 +879,757 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="2">
-        <v>45017</v>
+        <v>45108</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>733238</v>
+        <v>648470</v>
       </c>
       <c r="D2">
-        <v>739271.1875</v>
+        <v>661515.1875</v>
       </c>
       <c r="E2">
-        <v>746980</v>
+        <v>679043.9375</v>
       </c>
       <c r="F2">
-        <v>736799.125</v>
+        <v>675233.625</v>
       </c>
       <c r="G2">
-        <v>762232</v>
+        <v>686389</v>
       </c>
       <c r="H2">
-        <v>706663.375</v>
+        <v>684568.3125</v>
       </c>
       <c r="I2">
-        <v>690494.87</v>
+        <v>651016.9124437004</v>
       </c>
       <c r="J2">
-        <v>701710.9375</v>
+        <v>673670.6875</v>
       </c>
       <c r="K2">
-        <v>693036.4369255345</v>
+        <v>669901.54</v>
       </c>
       <c r="L2">
-        <v>738620.3125</v>
+        <v>631265.2169169002</v>
       </c>
       <c r="M2">
-        <v>790080.4375</v>
+        <v>812271.1875</v>
       </c>
       <c r="N2">
-        <v>705605.2631153367</v>
+        <v>758458.625</v>
       </c>
       <c r="O2">
-        <v>766019.625</v>
+        <v>617849.75</v>
       </c>
       <c r="P2">
-        <v>543803.75</v>
+        <v>382160.5625</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="2">
-        <v>45047</v>
+        <v>45139</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>767495</v>
+        <v>729354</v>
       </c>
       <c r="D3">
-        <v>787724</v>
+        <v>747475.625</v>
       </c>
       <c r="E3">
-        <v>784938.125</v>
+        <v>766073.75</v>
       </c>
       <c r="F3">
-        <v>816478.5</v>
+        <v>753844.0625</v>
       </c>
       <c r="G3">
-        <v>811384.5</v>
+        <v>758015.5625</v>
       </c>
       <c r="H3">
-        <v>739765.875</v>
+        <v>775614.3125</v>
       </c>
       <c r="I3">
-        <v>712759.73</v>
+        <v>705120.071607796</v>
       </c>
       <c r="J3">
-        <v>705003.3125</v>
+        <v>737539</v>
       </c>
       <c r="K3">
-        <v>693572.7996119969</v>
+        <v>734474.49</v>
       </c>
       <c r="L3">
-        <v>712646.6875</v>
+        <v>724064.1620305183</v>
       </c>
       <c r="M3">
-        <v>754359.3125</v>
+        <v>641583.5625</v>
       </c>
       <c r="N3">
-        <v>673631.3525514712</v>
+        <v>665009.875</v>
       </c>
       <c r="O3">
-        <v>679561.0625</v>
+        <v>528186</v>
       </c>
       <c r="P3">
-        <v>505987.4375</v>
+        <v>384628.125</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="2">
-        <v>45078</v>
+        <v>45170</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4">
-        <v>712496</v>
+        <v>745932</v>
       </c>
       <c r="D4">
-        <v>742181.875</v>
+        <v>719671.25</v>
       </c>
       <c r="E4">
-        <v>737839.5</v>
+        <v>745169.9375</v>
       </c>
       <c r="F4">
-        <v>748867.625</v>
+        <v>746266.375</v>
       </c>
       <c r="G4">
-        <v>747720.8125</v>
+        <v>738948.5</v>
       </c>
       <c r="H4">
-        <v>708434.75</v>
+        <v>716260.625</v>
       </c>
       <c r="I4">
-        <v>687656.53</v>
+        <v>674726.7393057544</v>
       </c>
       <c r="J4">
-        <v>695194.5</v>
+        <v>687146.3125</v>
       </c>
       <c r="K4">
-        <v>694775.4187065688</v>
+        <v>690947.0699999999</v>
       </c>
       <c r="L4">
-        <v>609649.1875</v>
+        <v>636003.6252351785</v>
       </c>
       <c r="M4">
-        <v>675545.9375</v>
+        <v>576063.625</v>
       </c>
       <c r="N4">
-        <v>696062.000735302</v>
+        <v>659281.6875</v>
       </c>
       <c r="O4">
-        <v>627705.0625</v>
+        <v>580198.875</v>
       </c>
       <c r="P4">
-        <v>377313.40625</v>
+        <v>419050.5</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="2">
-        <v>45108</v>
+        <v>45200</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5">
-        <v>648470</v>
+        <v>840753</v>
       </c>
       <c r="D5">
-        <v>653135.5625</v>
+        <v>838209.5625</v>
       </c>
       <c r="E5">
-        <v>649707.1875</v>
+        <v>850149.375</v>
       </c>
       <c r="F5">
-        <v>648997.75</v>
+        <v>864017.8125</v>
       </c>
       <c r="G5">
-        <v>673616.375</v>
+        <v>851547.875</v>
       </c>
       <c r="H5">
-        <v>615904.5</v>
+        <v>846541.25</v>
       </c>
       <c r="I5">
-        <v>667340.92</v>
+        <v>707072.2440256727</v>
       </c>
       <c r="J5">
-        <v>671980.8125</v>
+        <v>752026.1875</v>
       </c>
       <c r="K5">
-        <v>673424.4522270056</v>
+        <v>744774.75</v>
       </c>
       <c r="L5">
-        <v>738713.5625</v>
+        <v>750359.7676832653</v>
       </c>
       <c r="M5">
-        <v>819952.875</v>
+        <v>646856.4375</v>
       </c>
       <c r="N5">
-        <v>647807.3356491034</v>
+        <v>698336.25</v>
       </c>
       <c r="O5">
-        <v>751666.6875</v>
+        <v>695661.375</v>
       </c>
       <c r="P5">
-        <v>491709.875</v>
+        <v>521859.96875</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="2">
-        <v>45139</v>
+        <v>45231</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6">
-        <v>729354</v>
+        <v>773778</v>
       </c>
       <c r="D6">
-        <v>724851.5</v>
+        <v>780722.8125</v>
       </c>
       <c r="E6">
-        <v>691314.625</v>
+        <v>796457.875</v>
       </c>
       <c r="F6">
-        <v>750851</v>
+        <v>802374.75</v>
       </c>
       <c r="G6">
-        <v>746845.9375</v>
+        <v>805660</v>
       </c>
       <c r="H6">
-        <v>700081.25</v>
+        <v>802960.125</v>
       </c>
       <c r="I6">
-        <v>707616.41</v>
+        <v>703262.0506302759</v>
       </c>
       <c r="J6">
-        <v>690259.25</v>
+        <v>702816.6875</v>
       </c>
       <c r="K6">
-        <v>691963.172432273</v>
+        <v>688104.63</v>
       </c>
       <c r="L6">
-        <v>734327.25</v>
+        <v>702338.632710328</v>
       </c>
       <c r="M6">
-        <v>710851.4375</v>
+        <v>708131.125</v>
       </c>
       <c r="N6">
-        <v>682549.5010392515</v>
+        <v>695551.3125</v>
       </c>
       <c r="O6">
-        <v>675753</v>
+        <v>661417.8125</v>
       </c>
       <c r="P6">
-        <v>499670.125</v>
+        <v>489657.90625</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="2">
-        <v>45170</v>
+        <v>45261</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7">
-        <v>745932</v>
+        <v>805939</v>
       </c>
       <c r="D7">
-        <v>749646.4375</v>
+        <v>797879</v>
       </c>
       <c r="E7">
-        <v>723882.375</v>
+        <v>812068.1875</v>
       </c>
       <c r="F7">
-        <v>726529.75</v>
+        <v>836205</v>
       </c>
       <c r="G7">
-        <v>702631.3125</v>
+        <v>835094.25</v>
       </c>
       <c r="H7">
-        <v>716476.3125</v>
+        <v>806807.5</v>
       </c>
       <c r="I7">
-        <v>694308.05</v>
+        <v>702162.1854403538</v>
       </c>
       <c r="J7">
-        <v>682808.625</v>
+        <v>689797.375</v>
       </c>
       <c r="K7">
-        <v>674106.9165517195</v>
+        <v>714760.5</v>
       </c>
       <c r="L7">
-        <v>577613.375</v>
+        <v>689572.1108969005</v>
       </c>
       <c r="M7">
-        <v>571640.0625</v>
+        <v>709032.8125</v>
       </c>
       <c r="N7">
-        <v>619853.3976584073</v>
+        <v>665769.3125</v>
       </c>
       <c r="O7">
-        <v>555741.375</v>
+        <v>632071.375</v>
       </c>
       <c r="P7">
-        <v>327394.03125</v>
+        <v>479297.4375</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="2">
-        <v>45200</v>
+        <v>45292</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8">
-        <v>840753</v>
+        <v>732365</v>
       </c>
       <c r="D8">
-        <v>864152</v>
+        <v>720434.75</v>
       </c>
       <c r="E8">
-        <v>849530.875</v>
+        <v>757284.375</v>
       </c>
       <c r="F8">
-        <v>835882.375</v>
+        <v>757745</v>
       </c>
       <c r="G8">
-        <v>821723.875</v>
+        <v>770024.625</v>
       </c>
       <c r="H8">
-        <v>808896</v>
+        <v>722821.9375</v>
       </c>
       <c r="I8">
-        <v>734173.59</v>
+        <v>668078.7835191463</v>
       </c>
       <c r="J8">
-        <v>742579.875</v>
+        <v>695184.625</v>
       </c>
       <c r="K8">
-        <v>692809.8040864208</v>
+        <v>677404.7</v>
       </c>
       <c r="L8">
-        <v>587486.6875</v>
+        <v>668749.4043208577</v>
       </c>
       <c r="M8">
-        <v>735323.8125</v>
+        <v>732330.875</v>
       </c>
       <c r="N8">
-        <v>745567.6390132778</v>
+        <v>641856.1875</v>
       </c>
       <c r="O8">
-        <v>578622.8125</v>
+        <v>590602.9375</v>
       </c>
       <c r="P8">
-        <v>394806.0625</v>
+        <v>436473.0625</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="2">
-        <v>45231</v>
+        <v>45323</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9">
-        <v>773778</v>
+        <v>772313</v>
       </c>
       <c r="D9">
-        <v>797842.1875</v>
+        <v>749741.25</v>
       </c>
       <c r="E9">
-        <v>765060.75</v>
+        <v>742715.25</v>
       </c>
       <c r="F9">
-        <v>785180</v>
+        <v>764486.1875</v>
       </c>
       <c r="G9">
-        <v>767409.25</v>
+        <v>777860.875</v>
       </c>
       <c r="H9">
-        <v>752727.875</v>
+        <v>745133</v>
       </c>
       <c r="I9">
-        <v>698416.26</v>
+        <v>712765.7514890893</v>
       </c>
       <c r="J9">
-        <v>695021.5625</v>
+        <v>695201.4375</v>
       </c>
       <c r="K9">
-        <v>693914.5757226733</v>
+        <v>687275.39</v>
       </c>
       <c r="L9">
-        <v>634742.9375</v>
+        <v>654837.022572914</v>
       </c>
       <c r="M9">
-        <v>855725.5625</v>
+        <v>707551.9375</v>
       </c>
       <c r="N9">
-        <v>686053.9507479272</v>
+        <v>605481.0625</v>
       </c>
       <c r="O9">
-        <v>636178.0625</v>
+        <v>558822.4375</v>
       </c>
       <c r="P9">
-        <v>434868.8125</v>
+        <v>432954.96875</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="2">
-        <v>45261</v>
+        <v>45352</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10">
-        <v>805939</v>
+        <v>773749</v>
       </c>
       <c r="D10">
-        <v>801219</v>
+        <v>764606.3125</v>
       </c>
       <c r="E10">
-        <v>804660.9375</v>
+        <v>765151.125</v>
       </c>
       <c r="F10">
-        <v>799150</v>
+        <v>784667</v>
       </c>
       <c r="G10">
-        <v>795913.125</v>
+        <v>778721</v>
       </c>
       <c r="H10">
-        <v>769185.5</v>
+        <v>748243.625</v>
       </c>
       <c r="I10">
-        <v>716047.88</v>
+        <v>665605.055313036</v>
       </c>
       <c r="J10">
-        <v>712129.1875</v>
+        <v>688631.6875</v>
       </c>
       <c r="K10">
-        <v>691200.176906697</v>
+        <v>692124.41</v>
       </c>
       <c r="L10">
-        <v>716937.0625</v>
+        <v>676387.1339180359</v>
       </c>
       <c r="M10">
-        <v>754142.25</v>
+        <v>671317.3125</v>
       </c>
       <c r="N10">
-        <v>693880.8539693381</v>
+        <v>510530.21875</v>
       </c>
       <c r="O10">
-        <v>697266.3125</v>
+        <v>684617.1875</v>
       </c>
       <c r="P10">
-        <v>499631.4375</v>
+        <v>475053.0625</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="2">
-        <v>45292</v>
+        <v>45383</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11">
-        <v>732365</v>
+        <v>780416</v>
       </c>
       <c r="D11">
-        <v>732625.1875</v>
+        <v>772087.75</v>
       </c>
       <c r="E11">
-        <v>713061.3125</v>
+        <v>772939.9375</v>
       </c>
       <c r="F11">
-        <v>702961.25</v>
+        <v>783949.1875</v>
       </c>
       <c r="G11">
-        <v>739997.1875</v>
+        <v>809114.9375</v>
       </c>
       <c r="H11">
-        <v>693643.625</v>
+        <v>792170.5</v>
       </c>
       <c r="I11">
-        <v>688007.99</v>
+        <v>710975.5357171257</v>
       </c>
       <c r="J11">
-        <v>679345.5625</v>
+        <v>695113</v>
       </c>
       <c r="K11">
-        <v>671443.7428213939</v>
+        <v>692226.9</v>
       </c>
       <c r="L11">
-        <v>736272.5625</v>
+        <v>713046.2025312562</v>
       </c>
       <c r="M11">
-        <v>632601.5</v>
+        <v>757756.25</v>
       </c>
       <c r="N11">
-        <v>680277.1973706086</v>
+        <v>662107.25</v>
       </c>
       <c r="O11">
-        <v>735541.8125</v>
+        <v>686494.125</v>
       </c>
       <c r="P11">
-        <v>526895.1875</v>
+        <v>483426.71875</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="2">
-        <v>45323</v>
+        <v>45413</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12">
-        <v>772313</v>
+        <v>862676</v>
       </c>
       <c r="D12">
-        <v>732706.5</v>
+        <v>786192.5</v>
       </c>
       <c r="E12">
-        <v>729158.125</v>
+        <v>819120.75</v>
       </c>
       <c r="F12">
-        <v>752545.375</v>
+        <v>834526.125</v>
       </c>
       <c r="G12">
-        <v>713068.6875</v>
+        <v>826808.375</v>
       </c>
       <c r="H12">
-        <v>707723.875</v>
+        <v>816087.125</v>
       </c>
       <c r="I12">
-        <v>697632.13</v>
+        <v>707072.2440256727</v>
       </c>
       <c r="J12">
-        <v>694177.5</v>
+        <v>750572.8125</v>
       </c>
       <c r="K12">
-        <v>695389.3416881748</v>
+        <v>747914.26</v>
       </c>
       <c r="L12">
-        <v>793884.25</v>
+        <v>744897.0467922854</v>
       </c>
       <c r="M12">
-        <v>665100</v>
+        <v>743052.375</v>
       </c>
       <c r="N12">
-        <v>648211.837228577</v>
+        <v>707550.875</v>
       </c>
       <c r="O12">
-        <v>780208.9375</v>
+        <v>630318.4375</v>
       </c>
       <c r="P12">
-        <v>575176.75</v>
+        <v>522349.6875</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="2">
-        <v>45352</v>
+        <v>45444</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13">
-        <v>773749</v>
+        <v>786724</v>
       </c>
       <c r="D13">
-        <v>729357.9375</v>
+        <v>768713.125</v>
       </c>
       <c r="E13">
-        <v>741441</v>
+        <v>785781.6875</v>
       </c>
       <c r="F13">
-        <v>718983.3125</v>
+        <v>782714.25</v>
       </c>
       <c r="G13">
-        <v>769113.3125</v>
+        <v>787500.875</v>
       </c>
       <c r="H13">
-        <v>721604.8125</v>
+        <v>748344.625</v>
       </c>
       <c r="I13">
-        <v>700372.63</v>
+        <v>708017.6495496836</v>
       </c>
       <c r="J13">
-        <v>686508.0625</v>
+        <v>693847.1875</v>
       </c>
       <c r="K13">
-        <v>672330.4954239887</v>
+        <v>699397.72</v>
       </c>
       <c r="L13">
-        <v>771236.1875</v>
+        <v>693945.0547798148</v>
       </c>
       <c r="M13">
-        <v>759730.1875</v>
+        <v>655741.75</v>
       </c>
       <c r="N13">
-        <v>693983.1716139088</v>
+        <v>554572.0625</v>
       </c>
       <c r="O13">
-        <v>748831.1875</v>
+        <v>655045</v>
       </c>
       <c r="P13">
-        <v>512242.59375</v>
+        <v>494600.21875</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="2">
-        <v>45383</v>
+        <v>45474</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14">
-        <v>780416</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>806331.75</v>
+        <v>708474.6875</v>
       </c>
       <c r="E14">
-        <v>747293.0625</v>
+        <v>713019</v>
       </c>
       <c r="F14">
-        <v>739782.25</v>
+        <v>732958.5</v>
       </c>
       <c r="G14">
-        <v>789932.625</v>
+        <v>725870.375</v>
       </c>
       <c r="H14">
-        <v>740268.25</v>
+        <v>726769.5625</v>
       </c>
       <c r="I14">
-        <v>701883.25</v>
+        <v>671409.281751343</v>
       </c>
       <c r="J14">
-        <v>695377.0625</v>
+        <v>699135.625</v>
       </c>
       <c r="K14">
-        <v>695653.5575037076</v>
+        <v>683289.26</v>
       </c>
       <c r="L14">
-        <v>724818.8125</v>
+        <v>667863.1988477439</v>
       </c>
       <c r="M14">
-        <v>752195.375</v>
+        <v>668353.625</v>
       </c>
       <c r="N14">
-        <v>705112.9959612831</v>
+        <v>696817.5625</v>
       </c>
       <c r="O14">
-        <v>724426.75</v>
+        <v>655320.375</v>
       </c>
       <c r="P14">
-        <v>510793.3125</v>
+        <v>487205.59375</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="2">
-        <v>45413</v>
+        <v>45505</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15">
-        <v>862676</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>810672</v>
+        <v>770112.125</v>
       </c>
       <c r="E15">
-        <v>794218.375</v>
+        <v>787578.5</v>
       </c>
       <c r="F15">
-        <v>794473.875</v>
+        <v>780195.25</v>
       </c>
       <c r="G15">
-        <v>788923.0625</v>
+        <v>807414.25</v>
       </c>
       <c r="H15">
-        <v>752015.5</v>
+        <v>778504.9375</v>
       </c>
       <c r="I15">
-        <v>734244.6800000001</v>
+        <v>702162.1854403538</v>
       </c>
       <c r="J15">
-        <v>738010.375</v>
+        <v>739952.5</v>
       </c>
       <c r="K15">
-        <v>692809.8040864208</v>
+        <v>743033.54</v>
       </c>
       <c r="L15">
-        <v>747902.6875</v>
+        <v>732591.1268569004</v>
       </c>
       <c r="M15">
-        <v>812161.5625</v>
+        <v>716564.6875</v>
       </c>
       <c r="N15">
-        <v>725231.080427923</v>
+        <v>493585.8125</v>
       </c>
       <c r="O15">
-        <v>714123.25</v>
+        <v>668609.5</v>
       </c>
       <c r="P15">
-        <v>546129.4375</v>
+        <v>491757.09375</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="2">
-        <v>45444</v>
+        <v>45536</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16">
-        <v>786724</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>758524.4375</v>
+        <v>716256.25</v>
       </c>
       <c r="E16">
-        <v>759006.75</v>
+        <v>727376.25</v>
       </c>
       <c r="F16">
-        <v>717355.25</v>
+        <v>732959.625</v>
       </c>
       <c r="G16">
-        <v>718502.375</v>
+        <v>734323.125</v>
       </c>
       <c r="H16">
-        <v>708329.625</v>
+        <v>698853.5625</v>
       </c>
       <c r="I16">
-        <v>707024.3100000001</v>
+        <v>674726.7393057544</v>
       </c>
       <c r="J16">
-        <v>701986.625</v>
+        <v>642584.375</v>
       </c>
       <c r="K16">
-        <v>694890.5619781315</v>
+        <v>667629.45</v>
       </c>
       <c r="L16">
-        <v>746909.8125</v>
+        <v>618102.5366675759</v>
       </c>
       <c r="M16">
-        <v>742726.6875</v>
+        <v>774146.75</v>
       </c>
       <c r="N16">
-        <v>683838.8839847882</v>
+        <v>620370.1875</v>
       </c>
       <c r="O16">
-        <v>774978.625</v>
+        <v>697505.3125</v>
       </c>
       <c r="P16">
-        <v>540486.1875</v>
+        <v>484471.4375</v>
       </c>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="2">
-        <v>45474</v>
+        <v>45566</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -1638,48 +1638,48 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>676974.9375</v>
+        <v>764260.9375</v>
       </c>
       <c r="E17">
-        <v>705805.5625</v>
+        <v>761678.6875</v>
       </c>
       <c r="F17">
-        <v>682796.9375</v>
+        <v>772846.75</v>
       </c>
       <c r="G17">
-        <v>717502.3125</v>
+        <v>808785.375</v>
       </c>
       <c r="H17">
-        <v>713457.4375</v>
+        <v>776231.875</v>
       </c>
       <c r="I17">
-        <v>688003.66</v>
+        <v>707072.2440256727</v>
       </c>
       <c r="J17">
-        <v>678494</v>
+        <v>696543.5</v>
       </c>
       <c r="K17">
-        <v>672652.8428959736</v>
+        <v>731107.85</v>
       </c>
       <c r="L17">
-        <v>862500.1875</v>
+        <v>748890.8897189777</v>
       </c>
       <c r="M17">
-        <v>655537.625</v>
+        <v>799823.5</v>
       </c>
       <c r="N17">
-        <v>656466.5554680298</v>
+        <v>530373.5625</v>
       </c>
       <c r="O17">
-        <v>874011.6875</v>
+        <v>757204.5</v>
       </c>
       <c r="P17">
-        <v>653882.375</v>
+        <v>570726.375</v>
       </c>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="2">
-        <v>45505</v>
+        <v>45597</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -1688,48 +1688,48 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>757287.4375</v>
+        <v>751740</v>
       </c>
       <c r="E18">
-        <v>741724.125</v>
+        <v>758125.75</v>
       </c>
       <c r="F18">
-        <v>765728.5</v>
+        <v>770448.75</v>
       </c>
       <c r="G18">
-        <v>701588.75</v>
+        <v>765872.4375</v>
       </c>
       <c r="H18">
-        <v>749520.125</v>
+        <v>754631.125</v>
       </c>
       <c r="I18">
-        <v>733986.91</v>
+        <v>676267.0217659876</v>
       </c>
       <c r="J18">
-        <v>725997.1875</v>
+        <v>698276.625</v>
       </c>
       <c r="K18">
-        <v>691200.176906697</v>
+        <v>690872.22</v>
       </c>
       <c r="L18">
-        <v>888183.75</v>
+        <v>685569.4262811547</v>
       </c>
       <c r="M18">
-        <v>673822.25</v>
+        <v>829241.0625</v>
       </c>
       <c r="N18">
-        <v>733087.7455212418</v>
+        <v>706379.8125</v>
       </c>
       <c r="O18">
-        <v>883339.8125</v>
+        <v>740805.1875</v>
       </c>
       <c r="P18">
-        <v>639710.3125</v>
+        <v>563749.5</v>
       </c>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="2">
-        <v>45536</v>
+        <v>45627</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -1738,48 +1738,48 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>711981.75</v>
+        <v>776143.25</v>
       </c>
       <c r="E19">
-        <v>702188.1875</v>
+        <v>770536.875</v>
       </c>
       <c r="F19">
-        <v>710825.5</v>
+        <v>764190.875</v>
       </c>
       <c r="G19">
-        <v>656060.75</v>
+        <v>790835.75</v>
       </c>
       <c r="H19">
-        <v>689530.1875</v>
+        <v>769407.4375</v>
       </c>
       <c r="I19">
-        <v>679651.79</v>
+        <v>702162.1854403538</v>
       </c>
       <c r="J19">
-        <v>681919.1875</v>
+        <v>713562.125</v>
       </c>
       <c r="K19">
-        <v>674106.9165517195</v>
+        <v>709665.51</v>
       </c>
       <c r="L19">
-        <v>840931.5625</v>
+        <v>717367.2002023816</v>
       </c>
       <c r="M19">
-        <v>644324.0625</v>
+        <v>815744.5625</v>
       </c>
       <c r="N19">
-        <v>610542.4837154382</v>
+        <v>710205.25</v>
       </c>
       <c r="O19">
-        <v>828663.875</v>
+        <v>719283.4375</v>
       </c>
       <c r="P19">
-        <v>607172.3125</v>
+        <v>561364.4375</v>
       </c>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="2">
-        <v>45566</v>
+        <v>45658</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -1788,48 +1788,48 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>767195.75</v>
+        <v>710301.75</v>
       </c>
       <c r="E20">
-        <v>753789.375</v>
+        <v>713336.375</v>
       </c>
       <c r="F20">
-        <v>782327.75</v>
+        <v>720824.0625</v>
       </c>
       <c r="G20">
-        <v>742334</v>
+        <v>722822.375</v>
       </c>
       <c r="H20">
-        <v>732790.125</v>
+        <v>714096.25</v>
       </c>
       <c r="I20">
-        <v>711726.8</v>
+        <v>670515.1138983548</v>
       </c>
       <c r="J20">
-        <v>726288.375</v>
+        <v>689428.625</v>
       </c>
       <c r="K20">
-        <v>692694.660814858</v>
+        <v>692009.26</v>
       </c>
       <c r="L20">
-        <v>784483.625</v>
+        <v>611133.7631987268</v>
       </c>
       <c r="M20">
-        <v>887377.8125</v>
+        <v>788060.625</v>
       </c>
       <c r="N20">
-        <v>742673.1917774058</v>
+        <v>534902.1875</v>
       </c>
       <c r="O20">
-        <v>740558.9375</v>
+        <v>704997.1875</v>
       </c>
       <c r="P20">
-        <v>549333.6875</v>
+        <v>548364.75</v>
       </c>
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="2">
-        <v>45597</v>
+        <v>45689</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -1838,48 +1838,48 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>754418.0625</v>
+        <v>807792.3125</v>
       </c>
       <c r="E21">
-        <v>765419.625</v>
+        <v>754472.125</v>
       </c>
       <c r="F21">
-        <v>741688.1875</v>
+        <v>791493.8125</v>
       </c>
       <c r="G21">
-        <v>729229</v>
+        <v>791524</v>
       </c>
       <c r="H21">
-        <v>728746.75</v>
+        <v>793210.5</v>
       </c>
       <c r="I21">
-        <v>694470.2</v>
+        <v>710625.3898588514</v>
       </c>
       <c r="J21">
-        <v>682346.8125</v>
+        <v>701625.6875</v>
       </c>
       <c r="K21">
-        <v>677114.8372984402</v>
+        <v>687115.9399999999</v>
       </c>
       <c r="L21">
-        <v>728868.8125</v>
+        <v>689581.6869328546</v>
       </c>
       <c r="M21">
-        <v>736712.3125</v>
+        <v>805601.3125</v>
       </c>
       <c r="N21">
-        <v>679495.186061829</v>
+        <v>573188.5625</v>
       </c>
       <c r="O21">
-        <v>676527.3125</v>
+        <v>701179.75</v>
       </c>
       <c r="P21">
-        <v>487553.8125</v>
+        <v>511040.34375</v>
       </c>
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="2">
-        <v>45627</v>
+        <v>45717</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -1888,48 +1888,48 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>778070.875</v>
+        <v>717786.375</v>
       </c>
       <c r="E22">
-        <v>748508.5</v>
+        <v>714237.4375</v>
       </c>
       <c r="F22">
-        <v>773372.75</v>
+        <v>733635.5</v>
       </c>
       <c r="G22">
-        <v>712884.0625</v>
+        <v>739548.25</v>
       </c>
       <c r="H22">
-        <v>741120.125</v>
+        <v>705744.625</v>
       </c>
       <c r="I22">
-        <v>708943.76</v>
+        <v>670515.1138983548</v>
       </c>
       <c r="J22">
-        <v>706343.75</v>
+        <v>690054.5625</v>
       </c>
       <c r="K22">
-        <v>691085.0336351342</v>
+        <v>694791.74</v>
       </c>
       <c r="L22">
-        <v>760995.125</v>
+        <v>689651.5081650399</v>
       </c>
       <c r="M22">
-        <v>893859.375</v>
+        <v>830202.25</v>
       </c>
       <c r="N22">
-        <v>722191.3445599552</v>
+        <v>631291.8125</v>
       </c>
       <c r="O22">
-        <v>751879.1875</v>
+        <v>768982.25</v>
       </c>
       <c r="P22">
-        <v>534267.625</v>
+        <v>592206.4375</v>
       </c>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="2">
-        <v>45658</v>
+        <v>45748</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -1938,48 +1938,48 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>735905.625</v>
+        <v>776033.125</v>
       </c>
       <c r="E23">
-        <v>710919</v>
+        <v>771438.375</v>
       </c>
       <c r="F23">
-        <v>725625.25</v>
+        <v>760883.1875</v>
       </c>
       <c r="G23">
-        <v>652100.4375</v>
+        <v>789690.75</v>
       </c>
       <c r="H23">
-        <v>696286.125</v>
+        <v>793009.125</v>
       </c>
       <c r="I23">
-        <v>700439.1800000001</v>
+        <v>710625.3898588514</v>
       </c>
       <c r="J23">
-        <v>687593.875</v>
+        <v>697922.1875</v>
       </c>
       <c r="K23">
-        <v>672290.3744755416</v>
+        <v>695937.21</v>
       </c>
       <c r="L23">
-        <v>900559.5</v>
+        <v>707056.1532937762</v>
       </c>
       <c r="M23">
-        <v>740047.3125</v>
+        <v>914357.25</v>
       </c>
       <c r="N23">
-        <v>612775.2379195144</v>
+        <v>692298.5</v>
       </c>
       <c r="O23">
-        <v>914461.8125</v>
+        <v>822912.25</v>
       </c>
       <c r="P23">
-        <v>692782.125</v>
+        <v>618267.125</v>
       </c>
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="2">
-        <v>45689</v>
+        <v>45778</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -1988,48 +1988,48 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>803850.125</v>
+        <v>796808.875</v>
       </c>
       <c r="E24">
-        <v>755744.375</v>
+        <v>801775.375</v>
       </c>
       <c r="F24">
-        <v>779708.625</v>
+        <v>799329.5</v>
       </c>
       <c r="G24">
-        <v>750820.25</v>
+        <v>820119.75</v>
       </c>
       <c r="H24">
-        <v>761109.5</v>
+        <v>771345.875</v>
       </c>
       <c r="I24">
-        <v>698897.34</v>
+        <v>707072.2440256727</v>
       </c>
       <c r="J24">
-        <v>690863.5</v>
+        <v>751979</v>
       </c>
       <c r="K24">
-        <v>693914.5757226733</v>
+        <v>747914.26</v>
       </c>
       <c r="L24">
-        <v>1025707.125</v>
+        <v>721049.1450191797</v>
       </c>
       <c r="M24">
-        <v>858183.5625</v>
+        <v>936193.9375</v>
       </c>
       <c r="N24">
-        <v>671595.5890879333</v>
+        <v>666776.4375</v>
       </c>
       <c r="O24">
-        <v>984227</v>
+        <v>826663</v>
       </c>
       <c r="P24">
-        <v>785790.75</v>
+        <v>637627.8125</v>
       </c>
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="2">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -2038,48 +2038,48 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>736127.1875</v>
+        <v>773325.625</v>
       </c>
       <c r="E25">
-        <v>732042.625</v>
+        <v>763012</v>
       </c>
       <c r="F25">
-        <v>721720.8125</v>
+        <v>779461.875</v>
       </c>
       <c r="G25">
-        <v>699154.625</v>
+        <v>796080.75</v>
       </c>
       <c r="H25">
-        <v>703541.8125</v>
+        <v>777669</v>
       </c>
       <c r="I25">
-        <v>701522.88</v>
+        <v>710975.5357171257</v>
       </c>
       <c r="J25">
-        <v>687334.0625</v>
+        <v>701707.9375</v>
       </c>
       <c r="K25">
-        <v>673940.1226037125</v>
+        <v>686145.9</v>
       </c>
       <c r="L25">
-        <v>984350.1875</v>
+        <v>710191.1666701179</v>
       </c>
       <c r="M25">
-        <v>874807.9375</v>
+        <v>906811.5625</v>
       </c>
       <c r="N25">
-        <v>701109.4494984938</v>
+        <v>687559</v>
       </c>
       <c r="O25">
-        <v>974811.125</v>
+        <v>813017.875</v>
       </c>
       <c r="P25">
-        <v>748579.3125</v>
+        <v>594967.25</v>
       </c>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="2">
-        <v>45748</v>
+        <v>45839</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -2088,48 +2088,48 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <v>769432.6875</v>
+        <v>708648.3125</v>
       </c>
       <c r="E26">
-        <v>737007.125</v>
+        <v>709792.3125</v>
       </c>
       <c r="F26">
-        <v>752051.1875</v>
+        <v>692295.25</v>
       </c>
       <c r="G26">
-        <v>754018.625</v>
+        <v>720958.6875</v>
       </c>
       <c r="H26">
-        <v>775455.25</v>
+        <v>696139.5625</v>
       </c>
       <c r="I26">
-        <v>703564.0699999999</v>
+        <v>671409.281751343</v>
       </c>
       <c r="J26">
-        <v>695911.9375</v>
+        <v>699135.625</v>
       </c>
       <c r="K26">
-        <v>693914.5757226733</v>
+        <v>683289.26</v>
       </c>
       <c r="L26">
-        <v>1015726.8125</v>
+        <v>667863.1988477439</v>
       </c>
       <c r="M26">
-        <v>919324.9375</v>
+        <v>876980.875</v>
       </c>
       <c r="N26">
-        <v>688522.958888434</v>
+        <v>496440.28125</v>
       </c>
       <c r="O26">
-        <v>995740.5625</v>
+        <v>759309.75</v>
       </c>
       <c r="P26">
-        <v>796644.625</v>
+        <v>602931.0625</v>
       </c>
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="2">
-        <v>45778</v>
+        <v>45870</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -2138,48 +2138,48 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <v>801763.625</v>
+        <v>724657.625</v>
       </c>
       <c r="E27">
-        <v>779836.0625</v>
+        <v>764969</v>
       </c>
       <c r="F27">
-        <v>779736.5</v>
+        <v>771561.125</v>
       </c>
       <c r="G27">
-        <v>760750.75</v>
+        <v>780074.5625</v>
       </c>
       <c r="H27">
-        <v>784333.25</v>
+        <v>745750</v>
       </c>
       <c r="I27">
-        <v>734173.59</v>
+        <v>702162.1854403538</v>
       </c>
       <c r="J27">
-        <v>742566.625</v>
+        <v>739952.5</v>
       </c>
       <c r="K27">
-        <v>692809.8040864208</v>
+        <v>743033.54</v>
       </c>
       <c r="L27">
-        <v>1009907.625</v>
+        <v>732591.1268569004</v>
       </c>
       <c r="M27">
-        <v>906822</v>
+        <v>842490.625</v>
       </c>
       <c r="N27">
-        <v>702306.7483228727</v>
+        <v>611354.8125</v>
       </c>
       <c r="O27">
-        <v>960938.75</v>
+        <v>785019.25</v>
       </c>
       <c r="P27">
-        <v>769898.125</v>
+        <v>639342.75</v>
       </c>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="2">
-        <v>45809</v>
+        <v>45901</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -2188,48 +2188,48 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <v>767239.9375</v>
+        <v>727603.75</v>
       </c>
       <c r="E28">
-        <v>743150.625</v>
+        <v>710620.6875</v>
       </c>
       <c r="F28">
-        <v>763761</v>
+        <v>731811.9375</v>
       </c>
       <c r="G28">
-        <v>707816.0625</v>
+        <v>737499.75</v>
       </c>
       <c r="H28">
-        <v>735682.125</v>
+        <v>702326.5</v>
       </c>
       <c r="I28">
-        <v>698268.79</v>
+        <v>678740.7499720979</v>
       </c>
       <c r="J28">
-        <v>693948.1875</v>
+        <v>659801</v>
       </c>
       <c r="K28">
-        <v>695653.5575037076</v>
+        <v>658134.8100000001</v>
       </c>
       <c r="L28">
-        <v>997640.8125</v>
+        <v>673424.8527130049</v>
       </c>
       <c r="M28">
-        <v>959746.0625</v>
+        <v>886134.125</v>
       </c>
       <c r="N28">
-        <v>704177.2421414668</v>
+        <v>487980.375</v>
       </c>
       <c r="O28">
-        <v>1006328.125</v>
+        <v>878435.8125</v>
       </c>
       <c r="P28">
-        <v>795348.25</v>
+        <v>679450.4375</v>
       </c>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="2">
-        <v>45839</v>
+        <v>45931</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -2238,48 +2238,48 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>698308.5</v>
+        <v>767875.6875</v>
       </c>
       <c r="E29">
-        <v>693023.75</v>
+        <v>757843.25</v>
       </c>
       <c r="F29">
-        <v>701352</v>
+        <v>751729.125</v>
       </c>
       <c r="G29">
-        <v>690957.1875</v>
+        <v>757277.125</v>
       </c>
       <c r="H29">
-        <v>678331.875</v>
+        <v>739213.6875</v>
       </c>
       <c r="I29">
-        <v>688003.66</v>
+        <v>707072.2440256727</v>
       </c>
       <c r="J29">
-        <v>678494</v>
+        <v>688442.0625</v>
       </c>
       <c r="K29">
-        <v>672652.8428959736</v>
+        <v>731414.9399999999</v>
       </c>
       <c r="L29">
-        <v>1073670.5</v>
+        <v>638707.9699820613</v>
       </c>
       <c r="M29">
-        <v>994287.3125</v>
+        <v>986801.875</v>
       </c>
       <c r="N29">
-        <v>656466.5554680298</v>
+        <v>794991.25</v>
       </c>
       <c r="O29">
-        <v>1037589.9375</v>
+        <v>911715.1875</v>
       </c>
       <c r="P29">
-        <v>857366</v>
+        <v>756780.8125</v>
       </c>
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="2">
-        <v>45870</v>
+        <v>45962</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -2288,48 +2288,48 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>757577.875</v>
+        <v>731801.375</v>
       </c>
       <c r="E30">
-        <v>765323.125</v>
+        <v>724964.625</v>
       </c>
       <c r="F30">
-        <v>744635.375</v>
+        <v>745019.625</v>
       </c>
       <c r="G30">
-        <v>709362.8125</v>
+        <v>742884.6875</v>
       </c>
       <c r="H30">
-        <v>724453.5625</v>
+        <v>700125.125</v>
       </c>
       <c r="I30">
-        <v>733986.91</v>
+        <v>676267.0217659876</v>
       </c>
       <c r="J30">
-        <v>725997.1875</v>
+        <v>698276.625</v>
       </c>
       <c r="K30">
-        <v>691200.176906697</v>
+        <v>690872.22</v>
       </c>
       <c r="L30">
-        <v>1018310.4375</v>
+        <v>685569.4262811547</v>
       </c>
       <c r="M30">
-        <v>810580.625</v>
+        <v>1054174</v>
       </c>
       <c r="N30">
-        <v>733087.7455212418</v>
+        <v>791558.125</v>
       </c>
       <c r="O30">
-        <v>1005909.375</v>
+        <v>875678.9375</v>
       </c>
       <c r="P30">
-        <v>802336.375</v>
+        <v>720953.5</v>
       </c>
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="2">
-        <v>45901</v>
+        <v>45992</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -2338,193 +2338,43 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>729916.8125</v>
+        <v>720472.3125</v>
       </c>
       <c r="E31">
-        <v>699926.625</v>
+        <v>749662.75</v>
       </c>
       <c r="F31">
-        <v>697858.1875</v>
+        <v>732922.625</v>
       </c>
       <c r="G31">
-        <v>669747.5625</v>
+        <v>753548.25</v>
       </c>
       <c r="H31">
-        <v>721889.25</v>
+        <v>745606.125</v>
       </c>
       <c r="I31">
-        <v>669524.28</v>
+        <v>705120.071607796</v>
       </c>
       <c r="J31">
-        <v>675332.125</v>
+        <v>706815.3125</v>
       </c>
       <c r="K31">
-        <v>676343.2279674081</v>
+        <v>695879.4300000001</v>
       </c>
       <c r="L31">
-        <v>1036229.8125</v>
+        <v>704112.0467181277</v>
       </c>
       <c r="M31">
-        <v>738017.4375</v>
+        <v>1040198.5625</v>
       </c>
       <c r="N31">
-        <v>653927.3801050552</v>
+        <v>703233.375</v>
       </c>
       <c r="O31">
-        <v>1013252.5</v>
+        <v>908714.375</v>
       </c>
       <c r="P31">
-        <v>829316.75</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16">
-      <c r="A32" s="2">
-        <v>45931</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>749309.5</v>
-      </c>
-      <c r="E32">
-        <v>772930.375</v>
-      </c>
-      <c r="F32">
-        <v>748146.5</v>
-      </c>
-      <c r="G32">
-        <v>736404.125</v>
-      </c>
-      <c r="H32">
-        <v>751156.125</v>
-      </c>
-      <c r="I32">
-        <v>718397.39</v>
-      </c>
-      <c r="J32">
-        <v>728183.625</v>
-      </c>
-      <c r="K32">
-        <v>692809.8040864208</v>
-      </c>
-      <c r="L32">
-        <v>1016704.1875</v>
-      </c>
-      <c r="M32">
-        <v>603493.5625</v>
-      </c>
-      <c r="N32">
-        <v>646160.3967068361</v>
-      </c>
-      <c r="O32">
-        <v>983692.875</v>
-      </c>
-      <c r="P32">
-        <v>819941.0625</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16">
-      <c r="A33" s="2">
-        <v>45962</v>
-      </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <v>736679.5</v>
-      </c>
-      <c r="E33">
-        <v>750832.25</v>
-      </c>
-      <c r="F33">
-        <v>753786</v>
-      </c>
-      <c r="G33">
-        <v>736290.25</v>
-      </c>
-      <c r="H33">
-        <v>724361.4375</v>
-      </c>
-      <c r="I33">
-        <v>694470.2</v>
-      </c>
-      <c r="J33">
-        <v>682346.8125</v>
-      </c>
-      <c r="K33">
-        <v>677114.8372984402</v>
-      </c>
-      <c r="L33">
-        <v>999361.1875</v>
-      </c>
-      <c r="M33">
-        <v>853108.625</v>
-      </c>
-      <c r="N33">
-        <v>679495.186061829</v>
-      </c>
-      <c r="O33">
-        <v>975619.9375</v>
-      </c>
-      <c r="P33">
-        <v>790772.75</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16">
-      <c r="A34" s="2">
-        <v>45992</v>
-      </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>772808.3125</v>
-      </c>
-      <c r="E34">
-        <v>742057.25</v>
-      </c>
-      <c r="F34">
-        <v>719319.125</v>
-      </c>
-      <c r="G34">
-        <v>724447.5625</v>
-      </c>
-      <c r="H34">
-        <v>752071.625</v>
-      </c>
-      <c r="I34">
-        <v>705151.28</v>
-      </c>
-      <c r="J34">
-        <v>695934.0625</v>
-      </c>
-      <c r="K34">
-        <v>691963.172432273</v>
-      </c>
-      <c r="L34">
-        <v>1016942.6875</v>
-      </c>
-      <c r="M34">
-        <v>899409.125</v>
-      </c>
-      <c r="N34">
-        <v>706114.6225735154</v>
-      </c>
-      <c r="O34">
-        <v>987610.3125</v>
-      </c>
-      <c r="P34">
-        <v>805137.375</v>
+        <v>751692.0625</v>
       </c>
     </row>
   </sheetData>
